--- a/spreadsheets_final/marinegeo_spreadsheet_seagrass_epifauna.xlsx
+++ b/spreadsheets_final/marinegeo_spreadsheet_seagrass_epifauna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\marinegeo_resources\protocols\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\spreadsheets_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAEBB1B-2C86-4E9B-ACC6-7D52C776E1EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB5180-69D4-4935-880E-BA9A9CF4F328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol_metadata" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="114">
   <si>
     <t>sheet</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Count of individuals between Xmm and Ymm, where Y = the current sieve mesh size and X = the next largest sieve mesh size</t>
-  </si>
-  <si>
-    <t>8.0mm; 5.6mm; 4.0mm; 2.8mm; 2.0mm; 1.4mm. 1.0mm, 0.71mm, 0.5mm</t>
   </si>
   <si>
     <t>protocol_name</t>
@@ -322,9 +319,6 @@
   </si>
   <si>
     <t>site_code</t>
-  </si>
-  <si>
-    <t>v0.4.0</t>
   </si>
   <si>
     <t>data_entry_day</t>
@@ -420,6 +414,9 @@
   </si>
   <si>
     <t>The date the sample was collected in the field (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>v0.5.0</t>
   </si>
 </sst>
 </file>
@@ -1262,73 +1259,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="161.1" customHeight="1">
       <c r="B1" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1416,43 +1413,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>76</v>
-      </c>
       <c r="E1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="K1" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1793,37 +1790,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="32" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>77</v>
-      </c>
       <c r="F1" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="K1" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2164,28 +2161,28 @@
   <sheetData>
     <row r="1" spans="1:19" s="32" customFormat="1" ht="30">
       <c r="A1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>77</v>
-      </c>
       <c r="F1" s="31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>41</v>
@@ -2215,10 +2212,10 @@
         <v>49</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2545,11 +2542,11 @@
   <sheetPr>
     <tabColor rgb="FF97C8EB"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="50.1" customHeight="1"/>
@@ -2567,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -2596,13 +2593,13 @@
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -2612,10 +2609,10 @@
     </row>
     <row r="4" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -2628,10 +2625,10 @@
     </row>
     <row r="5" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -2644,64 +2641,64 @@
     </row>
     <row r="6" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>25</v>
@@ -2714,10 +2711,10 @@
     </row>
     <row r="10" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>5</v>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="11" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>20</v>
@@ -2750,10 +2747,10 @@
     </row>
     <row r="12" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="13" spans="1:6" s="25" customFormat="1" ht="67.5" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="14" t="s">
@@ -2778,13 +2775,13 @@
     </row>
     <row r="14" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -2796,10 +2793,10 @@
     </row>
     <row r="15" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>27</v>
@@ -2814,10 +2811,10 @@
     </row>
     <row r="16" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
@@ -2830,10 +2827,10 @@
     </row>
     <row r="17" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>21</v>
@@ -2846,10 +2843,10 @@
     </row>
     <row r="18" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>31</v>
@@ -2864,10 +2861,10 @@
     </row>
     <row r="19" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>32</v>
@@ -2882,10 +2879,10 @@
     </row>
     <row r="20" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>33</v>
@@ -2900,10 +2897,10 @@
     </row>
     <row r="21" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>33</v>
@@ -2918,10 +2915,10 @@
     </row>
     <row r="22" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
@@ -2936,10 +2933,10 @@
     </row>
     <row r="23" spans="1:6" s="25" customFormat="1" ht="56.1" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>28</v>
@@ -2954,13 +2951,13 @@
     </row>
     <row r="24" spans="1:6" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>16</v>
@@ -2970,13 +2967,13 @@
     </row>
     <row r="25" spans="1:6" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>16</v>
@@ -2986,13 +2983,13 @@
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="56.1" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>16</v>
@@ -3002,7 +2999,7 @@
     </row>
     <row r="27" spans="1:6" s="25" customFormat="1" ht="31.5">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="14" t="s">
@@ -3014,13 +3011,13 @@
     </row>
     <row r="28" spans="1:6" s="25" customFormat="1" ht="31.5">
       <c r="A28" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>2</v>
@@ -3032,10 +3029,10 @@
     </row>
     <row r="29" spans="1:6" s="25" customFormat="1" ht="63">
       <c r="A29" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -3050,10 +3047,10 @@
     </row>
     <row r="30" spans="1:6" s="25" customFormat="1" ht="47.25">
       <c r="A30" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>7</v>
@@ -3066,10 +3063,10 @@
     </row>
     <row r="31" spans="1:6" s="25" customFormat="1" ht="57.95" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>21</v>
@@ -3082,10 +3079,10 @@
     </row>
     <row r="32" spans="1:6" s="25" customFormat="1" ht="96" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>30</v>
@@ -3100,13 +3097,13 @@
     </row>
     <row r="33" spans="1:6" s="37" customFormat="1" ht="66" customHeight="1">
       <c r="A33" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>106</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>16</v>
@@ -3116,13 +3113,13 @@
     </row>
     <row r="34" spans="1:6" s="37" customFormat="1" ht="66" customHeight="1">
       <c r="A34" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>16</v>
@@ -3132,13 +3129,13 @@
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" ht="47.25">
       <c r="A35" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>16</v>
@@ -3148,10 +3145,10 @@
     </row>
     <row r="36" spans="1:6" s="25" customFormat="1" ht="96" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>36</v>
@@ -3168,10 +3165,10 @@
     </row>
     <row r="37" spans="1:6" s="25" customFormat="1" ht="96" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>37</v>
@@ -3188,13 +3185,13 @@
     </row>
     <row r="38" spans="1:6" s="25" customFormat="1" ht="96" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>16</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="39" spans="1:6" s="20" customFormat="1" ht="66" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="14" t="s">
@@ -3216,13 +3213,13 @@
     </row>
     <row r="40" spans="1:6" s="20" customFormat="1" ht="54.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>2</v>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="41" spans="1:6" s="20" customFormat="1" ht="66" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>27</v>
@@ -3252,10 +3249,10 @@
     </row>
     <row r="42" spans="1:6" s="20" customFormat="1" ht="66" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>7</v>
@@ -3268,10 +3265,10 @@
     </row>
     <row r="43" spans="1:6" s="20" customFormat="1" ht="69.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>21</v>
@@ -3284,10 +3281,10 @@
     </row>
     <row r="44" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>30</v>
@@ -3302,13 +3299,13 @@
     </row>
     <row r="45" spans="1:6" s="37" customFormat="1" ht="66" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>16</v>
@@ -3318,13 +3315,13 @@
     </row>
     <row r="46" spans="1:6" s="37" customFormat="1" ht="66" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>16</v>
@@ -3334,13 +3331,13 @@
     </row>
     <row r="47" spans="1:6" s="38" customFormat="1" ht="47.25">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>16</v>
@@ -3350,10 +3347,10 @@
     </row>
     <row r="48" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>53</v>
@@ -3370,13 +3367,13 @@
     </row>
     <row r="49" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>52</v>
@@ -3388,129 +3385,289 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="50.1" customHeight="1">
+    <row r="50" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
       <c r="A50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="16" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="D57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="29"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="E60" s="29"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A55" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="E64" s="29"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="50.1" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="50.1" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5 B8:B12">
